--- a/Docs/Presentations/Slides/WiT.xlsx
+++ b/Docs/Presentations/Slides/WiT.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\khensu\Home02\froeh\Desktop\GitHub\electric-feed-system\Docs\Presentations\Slides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Froehlich\Dropbox\GitHub\electric-feed-system\Docs\Presentations\Slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,35 +210,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,17 +532,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -558,132 +558,132 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>

--- a/Docs/Presentations/Slides/WiT.xlsx
+++ b/Docs/Presentations/Slides/WiT.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Froehlich\Dropbox\GitHub\electric-feed-system\Docs\Presentations\Slides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\khensu\Home02\froeh\Desktop\GitHub\electric-feed-system\Docs\Presentations\Slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Design for existing liquid fuel engine</t>
   </si>
@@ -81,12 +82,97 @@
   <si>
     <t>Customer Requirments</t>
   </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Structure parameters of EFS partial emission pump</t>
+  </si>
+  <si>
+    <t>No. of Blades Z</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Impeller Discharge Angle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Mathcad UniMath"/>
+        <family val="3"/>
+      </rPr>
+      <t>β(̊)</t>
+    </r>
+  </si>
+  <si>
+    <t>Base Diameter of Volute Caseing D3(in)</t>
+  </si>
+  <si>
+    <t>Length of Diffuser section LD(in)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diffusion Angle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Mathcad UniMath"/>
+        <family val="3"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Mathcad UniMath"/>
+        <family val="3"/>
+      </rPr>
+      <t>̊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Impeller eye Diameter De(in)</t>
+  </si>
+  <si>
+    <t>Discharge Throat Diameter d1(in)</t>
+  </si>
+  <si>
+    <t>Impeller Blade width b2(in)</t>
+  </si>
+  <si>
+    <t>Impeller Outlet Diameter D2(in)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +231,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Mathcad UniMath"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -180,11 +278,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -239,6 +348,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -810,4 +931,202 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="7" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="3:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21">
+        <v>10</v>
+      </c>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21">
+        <v>36</v>
+      </c>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21">
+        <v>2.42</v>
+      </c>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21">
+        <v>8</v>
+      </c>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Presentations/Slides/WiT.xlsx
+++ b/Docs/Presentations/Slides/WiT.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Customer Reqs" sheetId="1" r:id="rId1"/>
+    <sheet name="Build Params" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Design for existing liquid fuel engine</t>
   </si>
@@ -95,24 +95,166 @@
     <t>No. of Blades Z</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Impeller Discharge Angle </t>
-    </r>
-    <r>
-      <rPr>
+    <t>Performance parameters of EFS partial emission pump</t>
+  </si>
+  <si>
+    <t>Q (G.P.M)</t>
+  </si>
+  <si>
+    <t>H (ft)</t>
+  </si>
+  <si>
+    <t>P (KW)</t>
+  </si>
+  <si>
+    <t>≤ 3.5</t>
+  </si>
+  <si>
+    <t>Impeller Discharge Angle β(̊)</t>
+  </si>
+  <si>
+    <r>
+      <t>Impeller Outlet Diameter D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Mathcad UniMath"/>
-        <family val="3"/>
-      </rPr>
-      <t>β(̊)</t>
-    </r>
-  </si>
-  <si>
-    <t>Base Diameter of Volute Caseing D3(in)</t>
-  </si>
-  <si>
-    <t>Length of Diffuser section LD(in)</t>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(in)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Impeller Blade width b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(in)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Discharge Throat Diameter d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(in)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Impeller eye Diameter D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(in)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Base Diameter of Volute Caseing D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(in)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Length of Diffuser section L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(in)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -120,59 +262,53 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Mathcad UniMath"/>
-        <family val="3"/>
-      </rPr>
-      <t>α</t>
-    </r>
-    <r>
-      <rPr>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(̊)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>r</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Mathcad UniMath"/>
-        <family val="3"/>
-      </rPr>
-      <t>̊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Impeller eye Diameter De(in)</t>
-  </si>
-  <si>
-    <t>Discharge Throat Diameter d1(in)</t>
-  </si>
-  <si>
-    <t>Impeller Blade width b2(in)</t>
-  </si>
-  <si>
-    <t>Impeller Outlet Diameter D2(in)</t>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (r/min)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,14 +370,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Mathcad UniMath"/>
-      <family val="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -334,6 +491,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -349,17 +508,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,17 +824,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -679,20 +850,20 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
@@ -707,20 +878,20 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
@@ -735,20 +906,20 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -763,20 +934,20 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
@@ -791,20 +962,20 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -935,181 +1106,337 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G19"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="15.85546875" customWidth="1"/>
+    <col min="3" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="21" t="s">
+    <row r="2" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="3:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="23" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="2:9" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="16"/>
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="22" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21">
-        <v>2.1</v>
-      </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25">
         <v>0.2</v>
       </c>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25">
+        <v>10</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="22" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25">
+        <v>36</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25">
+        <v>2.42</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30">
+        <v>8</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="2:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="16"/>
+      <c r="C20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25">
+        <v>12</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25">
+        <v>754</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25">
+        <v>20500</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="21">
-        <v>0.43</v>
-      </c>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21">
-        <v>10</v>
-      </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21">
-        <v>36</v>
-      </c>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21">
-        <v>2.42</v>
-      </c>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21">
-        <v>8</v>
-      </c>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-    </row>
+      <c r="G25" s="23"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="2:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C9:E9"/>
+  <mergeCells count="36">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
@@ -1120,11 +1447,27 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Docs/Presentations/Slides/WiT.xlsx
+++ b/Docs/Presentations/Slides/WiT.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Reqs" sheetId="1" r:id="rId1"/>
     <sheet name="Build Params" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Design for existing liquid fuel engine</t>
   </si>
@@ -303,12 +304,72 @@
       <t xml:space="preserve"> (r/min)</t>
     </r>
   </si>
+  <si>
+    <t>Summary of monitored variables</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Monitoring device</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Coupled to motor shaft</t>
+  </si>
+  <si>
+    <t>Required electric power</t>
+  </si>
+  <si>
+    <t>Sensing simultaneously motor current and voltage</t>
+  </si>
+  <si>
+    <t>Pressure Transducer</t>
+  </si>
+  <si>
+    <t>Pump Inlet Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pump Inlet/Outlet Pressure </t>
+  </si>
+  <si>
+    <t>K-Type Thermocouple</t>
+  </si>
+  <si>
+    <t>Pump Rotational Speed</t>
+  </si>
+  <si>
+    <t>Homebrew Optical Sensor</t>
+  </si>
+  <si>
+    <t>Pump Torque</t>
+  </si>
+  <si>
+    <t>Load Cell</t>
+  </si>
+  <si>
+    <t>Coupled to free-floating torque arm</t>
+  </si>
+  <si>
+    <t>Liquid Turbine Flow Meter</t>
+  </si>
+  <si>
+    <t>Indicates possible cavitation</t>
+  </si>
+  <si>
+    <t>Pump Flow Rate</t>
+  </si>
+  <si>
+    <t>Indirect Measure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +461,39 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,7 +503,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -446,11 +540,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -508,33 +625,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1108,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -1130,13 +1278,13 @@
     </row>
     <row r="3" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
@@ -1166,9 +1314,9 @@
     </row>
     <row r="6" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1176,135 +1324,135 @@
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24">
         <v>2.1</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24">
         <v>0.2</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
         <v>0.18</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24">
         <v>0.43</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24">
         <v>10</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24">
         <v>36</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24">
         <v>2.42</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24">
         <v>1.2</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25">
         <v>8</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1312,9 +1460,9 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1322,13 +1470,13 @@
     </row>
     <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
@@ -1358,9 +1506,9 @@
     </row>
     <row r="21" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -1368,57 +1516,57 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24">
         <v>12</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24">
         <v>754</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24">
         <v>20500</v>
       </c>
-      <c r="G24" s="25"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="23"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
@@ -1432,42 +1580,190 @@
     <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="32"/>
+      <c r="D3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="32"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="32"/>
+      <c r="D5" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="3:8" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="42"/>
+      <c r="D6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="3:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="42"/>
+      <c r="D7" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="3:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="32"/>
+      <c r="D8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="3:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="32"/>
+      <c r="D9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="3:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="32"/>
+      <c r="D10" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="3:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="32"/>
+      <c r="D11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Docs/Presentations/Slides/WiT.xlsx
+++ b/Docs/Presentations/Slides/WiT.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Customer Reqs" sheetId="1" r:id="rId1"/>
     <sheet name="Build Params" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Measured Variables" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Design for existing liquid fuel engine</t>
   </si>
@@ -305,39 +305,15 @@
     </r>
   </si>
   <si>
-    <t>Summary of monitored variables</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
     <t>Monitoring device</t>
   </si>
   <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Coupled to motor shaft</t>
-  </si>
-  <si>
-    <t>Required electric power</t>
-  </si>
-  <si>
     <t>Sensing simultaneously motor current and voltage</t>
   </si>
   <si>
-    <t>Pressure Transducer</t>
-  </si>
-  <si>
-    <t>Pump Inlet Temperature</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pump Inlet/Outlet Pressure </t>
   </si>
   <si>
-    <t>K-Type Thermocouple</t>
-  </si>
-  <si>
     <t>Pump Rotational Speed</t>
   </si>
   <si>
@@ -350,26 +326,44 @@
     <t>Load Cell</t>
   </si>
   <si>
-    <t>Coupled to free-floating torque arm</t>
-  </si>
-  <si>
     <t>Liquid Turbine Flow Meter</t>
   </si>
   <si>
-    <t>Indicates possible cavitation</t>
-  </si>
-  <si>
     <t>Pump Flow Rate</t>
   </si>
   <si>
     <t>Indirect Measure</t>
+  </si>
+  <si>
+    <t>Pump Flow/Head Characteristics</t>
+  </si>
+  <si>
+    <t>Pump Power and Efficiency</t>
+  </si>
+  <si>
+    <t>Impeller Cavity/Seal Cavity Pressures</t>
+  </si>
+  <si>
+    <t>Loading on Pump Seals and Bushings</t>
+  </si>
+  <si>
+    <t>What do we gain?</t>
+  </si>
+  <si>
+    <t>Required Electric Power</t>
+  </si>
+  <si>
+    <t>Pressure Transducers/Gauges</t>
+  </si>
+  <si>
+    <t>Measured variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,22 +482,46 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -562,12 +580,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -610,74 +646,100 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -695,6 +757,269 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1106263</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1389529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5815852" y="1613648"/>
+          <a:ext cx="994205" cy="1322293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1176619</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2185149</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1397375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6880413" y="1602442"/>
+          <a:ext cx="1008530" cy="1341345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1382058</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1019735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5815852" y="3092823"/>
+          <a:ext cx="1270000" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1456763</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1064559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5815853" y="5277972"/>
+          <a:ext cx="1344704" cy="1008528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114461</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1458998</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1075765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5985059" y="6240560"/>
+          <a:ext cx="1010930" cy="1344537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>113690</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1446343</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1053353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5978731" y="4005711"/>
+          <a:ext cx="1010160" cy="1332653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -972,17 +1297,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -998,20 +1323,20 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
@@ -1026,20 +1351,20 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
@@ -1054,20 +1379,20 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -1082,20 +1407,20 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
@@ -1110,20 +1435,20 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -1278,13 +1603,13 @@
     </row>
     <row r="3" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
@@ -1300,23 +1625,23 @@
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1324,135 +1649,135 @@
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29">
         <v>2.1</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29">
         <v>0.2</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>0.18</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29">
         <v>0.43</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29">
         <v>10</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29">
         <v>36</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29">
         <v>2.42</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29">
         <v>1.2</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34">
         <v>8</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1460,9 +1785,9 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1470,13 +1795,13 @@
     </row>
     <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
@@ -1492,23 +1817,23 @@
     </row>
     <row r="20" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16"/>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -1516,57 +1841,57 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29">
         <v>12</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29">
         <v>754</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29">
         <v>20500</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="26"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
@@ -1580,42 +1905,42 @@
     <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1624,148 +1949,198 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H13"/>
+  <dimension ref="C2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="11" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="35" t="s">
-        <v>29</v>
-      </c>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="18"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="32"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="32"/>
-      <c r="D5" s="41" t="s">
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="3:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="3:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="18"/>
+      <c r="D5" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="3:15" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="36"/>
+      <c r="D6" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="3:15" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="18"/>
+      <c r="O7" s="47"/>
+    </row>
+    <row r="8" spans="3:15" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="36"/>
+      <c r="D8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="3:15" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="18"/>
+      <c r="D9" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="3:15" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="18"/>
+      <c r="D10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="3:15" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="18"/>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="3:8" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="42"/>
-      <c r="D6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="3:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="42"/>
-      <c r="D7" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="3:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="32"/>
-      <c r="D8" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="3:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="32"/>
-      <c r="D9" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="3:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="32"/>
-      <c r="D10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="3:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="32"/>
-      <c r="D11" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="32"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="3:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="18"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="18"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="18"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C6:C7"/>
+  <mergeCells count="6">
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H9:K11"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/Presentations/Slides/WiT.xlsx
+++ b/Docs/Presentations/Slides/WiT.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Reqs" sheetId="1" r:id="rId1"/>
     <sheet name="Build Params" sheetId="2" r:id="rId2"/>
     <sheet name="Measured Variables" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Design for existing liquid fuel engine</t>
   </si>
@@ -358,12 +359,71 @@
   <si>
     <t>Measured variable</t>
   </si>
+  <si>
+    <t>Impeller</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>Diffuser</t>
+  </si>
+  <si>
+    <t>Operating Conditions</t>
+  </si>
+  <si>
+    <t>Speed(rpm)</t>
+  </si>
+  <si>
+    <t>Max. Flow(gpm)</t>
+  </si>
+  <si>
+    <t>Output Power(W)</t>
+  </si>
+  <si>
+    <t>Max. Efficiency(%)</t>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Mathcad UniMath"/>
+        <family val="3"/>
+      </rPr>
+      <t>˚</t>
+    </r>
+  </si>
+  <si>
+    <t>Fluid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water </t>
+  </si>
+  <si>
+    <t>Max. Head(ft.)</t>
+  </si>
+  <si>
+    <t>Max. Discharge Pressure(psi)</t>
+  </si>
+  <si>
+    <t>Max. Torque(in/lbs.)</t>
+  </si>
+  <si>
+    <t>Temperature(˚C)</t>
+  </si>
+  <si>
+    <t>EFS Technical Data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +554,25 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Mathcad UniMath"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -603,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -654,48 +733,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -705,29 +742,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -738,8 +760,106 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1297,17 +1417,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1323,20 +1443,20 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
@@ -1351,20 +1471,20 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
@@ -1379,20 +1499,20 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -1407,20 +1527,20 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
@@ -1435,20 +1555,20 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -1582,7 +1702,7 @@
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C3" sqref="C3:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,13 +1723,13 @@
     </row>
     <row r="3" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
@@ -1625,23 +1745,23 @@
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1649,135 +1769,135 @@
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="40">
         <v>2.1</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="40">
         <v>0.2</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40">
         <v>0.18</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="40">
         <v>0.43</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="40">
         <v>10</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29">
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="40">
         <v>36</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="40">
         <v>2.42</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="40">
         <v>1.2</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34">
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38">
         <v>8</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1785,9 +1905,9 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1795,13 +1915,13 @@
     </row>
     <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
@@ -1817,23 +1937,23 @@
     </row>
     <row r="20" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16"/>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="32"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -1841,57 +1961,57 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="40">
         <v>12</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29">
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="40">
         <v>754</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40">
         <v>20500</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="27"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
@@ -1905,12 +2025,24 @@
     <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
@@ -1920,27 +2052,15 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1951,7 +2071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -1973,9 +2093,9 @@
     </row>
     <row r="3" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="18"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="3:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1984,132 +2104,132 @@
     </row>
     <row r="5" spans="3:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="18"/>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="3:15" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="36"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="45"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="3:15" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="36"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="18"/>
-      <c r="O7" s="47"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" spans="3:15" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="36"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="3:15" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="18"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="3:15" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="18"/>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="23" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="3:15" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="18"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="23" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="3:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -2119,9 +2239,9 @@
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="18"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
@@ -2143,4 +2263,266 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="6" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="69">
+        <v>20</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="63">
+        <v>16500</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="61">
+        <v>10.4</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="62">
+        <v>616.4</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="62">
+        <v>284.60000000000002</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="62">
+        <v>11.4</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="65">
+        <v>2356.4</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="66">
+        <v>42.8</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Presentations/Slides/WiT.xlsx
+++ b/Docs/Presentations/Slides/WiT.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer Reqs" sheetId="1" r:id="rId1"/>
-    <sheet name="Build Params" sheetId="2" r:id="rId2"/>
-    <sheet name="Measured Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Customer Reqs (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="Customer Reqs" sheetId="1" r:id="rId2"/>
+    <sheet name="Build Params" sheetId="2" r:id="rId3"/>
+    <sheet name="Measured Variables" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Design for existing liquid fuel engine</t>
   </si>
@@ -418,12 +419,39 @@
   <si>
     <t>EFS Technical Data</t>
   </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>YES/NO</t>
+  </si>
+  <si>
+    <t>10 ≤ Q ≥ 12 gpm</t>
+  </si>
+  <si>
+    <t>300 ≤ Pd ≥ 400 psi</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Achieved</t>
+  </si>
+  <si>
+    <t>Witnessed</t>
+  </si>
+  <si>
+    <t>&gt; 400</t>
+  </si>
+  <si>
+    <t>&gt; 14</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,8 +601,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,8 +641,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -677,12 +725,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -760,66 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -833,9 +830,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -860,6 +854,141 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1405,6 +1534,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:R20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="71"/>
+      <c r="P3" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+    </row>
+    <row r="4" spans="2:18" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+    </row>
+    <row r="5" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="91">
+        <v>284</v>
+      </c>
+      <c r="M5" s="91"/>
+      <c r="N5" s="82"/>
+      <c r="P5" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+    </row>
+    <row r="6" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="82"/>
+    </row>
+    <row r="7" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="91">
+        <v>10.5</v>
+      </c>
+      <c r="M7" s="91"/>
+      <c r="N7" s="82"/>
+      <c r="P7" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+    </row>
+    <row r="8" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="82"/>
+    </row>
+    <row r="9" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="90"/>
+      <c r="N9" s="82"/>
+    </row>
+    <row r="10" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="82"/>
+    </row>
+    <row r="11" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="90"/>
+      <c r="N11" s="82"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1417,17 +1874,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1443,20 +1900,20 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
@@ -1471,20 +1928,20 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
@@ -1499,20 +1956,20 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -1527,20 +1984,20 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
@@ -1555,20 +2012,20 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -1697,12 +2154,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G16"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,13 +2180,13 @@
     </row>
     <row r="3" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
@@ -1745,23 +2202,23 @@
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="43"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1769,135 +2226,135 @@
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="40">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56">
         <v>2.1</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="40">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56">
         <v>0.2</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40">
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56">
         <v>0.18</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="40">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56">
         <v>0.43</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="40">
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56">
         <v>10</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="40">
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56">
         <v>36</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="40">
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56">
         <v>2.42</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="40">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56">
         <v>1.2</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38">
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61">
         <v>8</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1905,9 +2362,9 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1915,13 +2372,13 @@
     </row>
     <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
@@ -1937,23 +2394,23 @@
     </row>
     <row r="20" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43" t="s">
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="43"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -1961,57 +2418,57 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="40">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56">
         <v>12</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="40">
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56">
         <v>754</v>
       </c>
-      <c r="G23" s="40"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56">
         <v>20500</v>
       </c>
-      <c r="G24" s="40"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="39"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
@@ -2025,24 +2482,14 @@
     <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
@@ -2053,21 +2500,31 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O14"/>
   <sheetViews>
@@ -2093,9 +2550,9 @@
     </row>
     <row r="3" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="18"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="3:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2107,17 +2564,17 @@
       <c r="D5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="3:15" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2130,12 +2587,12 @@
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="3:15" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2148,10 +2605,10 @@
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="18"/>
       <c r="O7" s="28"/>
     </row>
@@ -2165,12 +2622,12 @@
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="3:15" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2183,12 +2640,12 @@
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="3:15" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2201,10 +2658,10 @@
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="3:15" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2219,10 +2676,10 @@
         <v>30</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="3:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -2265,11 +2722,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2300,185 +2757,185 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="48">
         <v>20</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="42">
         <v>16500</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="40">
         <v>10.4</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="41">
         <v>616.4</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="41">
         <v>284.60000000000002</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="41">
         <v>11.4</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="44">
         <v>2356.4</v>
       </c>
       <c r="D19" s="6"/>
@@ -2488,10 +2945,10 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="45">
         <v>42.8</v>
       </c>
       <c r="D20" s="6"/>

--- a/Docs/Presentations/Slides/WiT.xlsx
+++ b/Docs/Presentations/Slides/WiT.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Design for existing liquid fuel engine</t>
   </si>
@@ -446,11 +446,20 @@
   <si>
     <t>&gt; 14</t>
   </si>
+  <si>
+    <t>&lt; $8000</t>
+  </si>
+  <si>
+    <t>Design, build, and test EFS for under $8000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -855,110 +864,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -971,7 +887,25 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,14 +914,97 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="17" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1534,241 +1551,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R20"/>
+  <dimension ref="B3:R22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="10" width="3.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="12" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="71" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="P3" s="95" t="s">
+      <c r="M3" s="63"/>
+      <c r="P3" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
     </row>
     <row r="4" spans="2:18" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-    </row>
-    <row r="5" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+    </row>
+    <row r="5" spans="2:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="97">
+        <v>3086.7759999999998</v>
+      </c>
+      <c r="M5" s="65"/>
+    </row>
+    <row r="6" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+    </row>
+    <row r="7" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="80" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="91">
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="66">
         <v>284</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="82"/>
-      <c r="P5" s="89" t="s">
+      <c r="M7" s="66"/>
+      <c r="N7" s="52"/>
+      <c r="P7" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-    </row>
-    <row r="6" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="82"/>
-    </row>
-    <row r="7" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77" t="s">
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+    </row>
+    <row r="8" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="52"/>
+    </row>
+    <row r="9" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="80" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="91">
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="66">
         <v>10.5</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="82"/>
-      <c r="P7" s="89" t="s">
+      <c r="M9" s="66"/>
+      <c r="N9" s="52"/>
+      <c r="P9" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-    </row>
-    <row r="8" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="82"/>
-    </row>
-    <row r="9" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="78" t="s">
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+    </row>
+    <row r="10" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="52"/>
+    </row>
+    <row r="11" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="80" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="90" t="s">
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="90"/>
-      <c r="N9" s="82"/>
-    </row>
-    <row r="10" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="82"/>
-    </row>
-    <row r="11" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
+      <c r="M11" s="65"/>
+      <c r="N11" s="52"/>
+    </row>
+    <row r="12" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="52"/>
+    </row>
+    <row r="13" spans="2:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="80" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="90" t="s">
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="90"/>
-      <c r="N11" s="82"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="52"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1780,7 +1807,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1804,7 +1831,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1835,25 +1862,52 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:K11"/>
+  <mergeCells count="20">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:K5"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1874,17 +1928,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1900,20 +1954,20 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
@@ -1928,20 +1982,20 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
@@ -1956,20 +2010,20 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -1984,20 +2038,20 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
@@ -2012,20 +2066,20 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="2:11" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -2180,13 +2234,13 @@
     </row>
     <row r="3" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
@@ -2202,23 +2256,23 @@
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="59"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -2226,135 +2280,135 @@
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56">
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="75">
         <v>2.1</v>
       </c>
-      <c r="G7" s="56"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="75">
         <v>0.2</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56">
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75">
         <v>0.18</v>
       </c>
-      <c r="G9" s="56"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56">
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="75">
         <v>0.43</v>
       </c>
-      <c r="G10" s="56"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56">
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="75">
         <v>10</v>
       </c>
-      <c r="G11" s="56"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56">
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="75">
         <v>36</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56">
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="75">
         <v>2.42</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="75">
         <v>1.2</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61">
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73">
         <v>8</v>
       </c>
-      <c r="G15" s="61"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -2362,9 +2416,9 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -2372,13 +2426,13 @@
     </row>
     <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
@@ -2394,23 +2448,23 @@
     </row>
     <row r="20" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16"/>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59" t="s">
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="59"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -2418,57 +2472,57 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56">
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="75">
         <v>12</v>
       </c>
-      <c r="G22" s="56"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56">
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="75">
         <v>754</v>
       </c>
-      <c r="G23" s="56"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56">
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75">
         <v>20500</v>
       </c>
-      <c r="G24" s="56"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54" t="s">
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="54"/>
+      <c r="G25" s="74"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
@@ -2482,14 +2536,24 @@
     <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
@@ -2500,24 +2564,14 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2550,9 +2604,9 @@
     </row>
     <row r="3" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="18"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="3:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2564,17 +2618,17 @@
       <c r="D5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="3:15" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2587,12 +2641,12 @@
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="3:15" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2605,10 +2659,10 @@
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="18"/>
       <c r="O7" s="28"/>
     </row>
@@ -2622,12 +2676,12 @@
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="3:15" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2640,12 +2694,12 @@
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="3:15" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2658,10 +2712,10 @@
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="3:15" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2676,10 +2730,10 @@
         <v>30</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="3:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -2766,10 +2820,10 @@
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="69"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -2860,10 +2914,10 @@
     </row>
     <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
